--- a/exercicios/1.2-exercicio-locadora/01_modelagem_fisico.xlsx
+++ b/exercicios/1.2-exercicio-locadora/01_modelagem_fisico.xlsx
@@ -1,63 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8326AF4-FD09-4509-9D04-65C91BEF08E7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F93F86-CD34-4725-89EB-D165EB7AAC2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Veiculos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Descricao</t>
+  </si>
+  <si>
+    <t>Saulo</t>
+  </si>
+  <si>
+    <t>Caique</t>
+  </si>
   <si>
     <t>Empresas</t>
   </si>
   <si>
+    <t>IdEmpresa</t>
+  </si>
+  <si>
+    <t>Unidas</t>
+  </si>
+  <si>
     <t>Veiculos</t>
   </si>
   <si>
+    <t>IdVeiculo</t>
+  </si>
+  <si>
+    <t>IdModelo</t>
+  </si>
+  <si>
+    <t>Placa</t>
+  </si>
+  <si>
+    <t>HEL1805</t>
+  </si>
+  <si>
+    <t>FER1010</t>
+  </si>
+  <si>
+    <t>POR1978</t>
+  </si>
+  <si>
+    <t>LEM9876</t>
+  </si>
+  <si>
+    <t>Marcas</t>
+  </si>
+  <si>
+    <t>IdMarca</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>Fiat</t>
+  </si>
+  <si>
+    <t>Modelos</t>
+  </si>
+  <si>
+    <t>Fiesta</t>
+  </si>
+  <si>
+    <t>Onix</t>
+  </si>
+  <si>
+    <t>Argo</t>
+  </si>
+  <si>
     <t>Alugueis</t>
   </si>
   <si>
-    <t>IdEmpresa</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>IdVeiculo</t>
-  </si>
-  <si>
-    <t>IdMarca</t>
-  </si>
-  <si>
-    <t>Placa</t>
-  </si>
-  <si>
-    <t>idAluguel</t>
-  </si>
-  <si>
     <t>IdAluguel</t>
   </si>
   <si>
@@ -70,71 +109,20 @@
     <t>DataFim</t>
   </si>
   <si>
-    <t>Unidas</t>
-  </si>
-  <si>
-    <t>HEL1805</t>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t>CPF</t>
   </si>
   <si>
     <t>Localiza</t>
-  </si>
-  <si>
-    <t>FER1010</t>
-  </si>
-  <si>
-    <t>POR1978</t>
-  </si>
-  <si>
-    <t>LEM9876</t>
-  </si>
-  <si>
-    <t>Marcas</t>
-  </si>
-  <si>
-    <t>Clientes</t>
-  </si>
-  <si>
-    <t>Modelos</t>
-  </si>
-  <si>
-    <t>CPF</t>
-  </si>
-  <si>
-    <t>IdModelo</t>
-  </si>
-  <si>
-    <t>Descricao</t>
-  </si>
-  <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t>Saulo</t>
-  </si>
-  <si>
-    <t>Fiesta</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>Caique</t>
-  </si>
-  <si>
-    <t>Onix</t>
-  </si>
-  <si>
-    <t>Fiat</t>
-  </si>
-  <si>
-    <t>Argo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,14 +246,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -273,26 +255,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFE7E6E6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFE7E6E6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFE7E6E6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFE7E6E6"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -348,12 +315,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="20" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,102 +595,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" customWidth="1"/>
     <col min="8" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" customHeight="1">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="15"/>
       <c r="D1" s="18" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E1" s="18"/>
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="J1" s="20" t="s">
-        <v>2</v>
-      </c>
+      <c r="I1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="20"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
-      <c r="N1" s="24"/>
-    </row>
-    <row r="2" spans="1:14" ht="15">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="I2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="12" t="s">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="22"/>
-    </row>
-    <row r="3" spans="1:14" ht="15">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="3">
         <v>1</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="10">
         <v>1</v>
       </c>
       <c r="J3" s="10">
@@ -744,14 +703,13 @@
       <c r="M3" s="11">
         <v>43485</v>
       </c>
-      <c r="N3" s="23"/>
-    </row>
-    <row r="4" spans="1:14" ht="15">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
@@ -760,19 +718,19 @@
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="10">
         <v>2</v>
       </c>
       <c r="J4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K4" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" s="11">
         <v>43485</v>
@@ -780,9 +738,8 @@
       <c r="M4" s="11">
         <v>43486</v>
       </c>
-      <c r="N4" s="23"/>
-    </row>
-    <row r="5" spans="1:14" ht="15">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D5" s="3">
         <v>3</v>
       </c>
@@ -790,19 +747,19 @@
         <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="10">
         <v>3</v>
       </c>
       <c r="J5" s="10">
+        <v>2</v>
+      </c>
+      <c r="K5" s="10">
         <v>3</v>
-      </c>
-      <c r="K5" s="10">
-        <v>2</v>
       </c>
       <c r="L5" s="11">
         <v>43486</v>
@@ -810,9 +767,8 @@
       <c r="M5" s="11">
         <v>43486</v>
       </c>
-      <c r="N5" s="23"/>
-    </row>
-    <row r="6" spans="1:14" ht="15">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D6" s="3">
         <v>4</v>
       </c>
@@ -820,16 +776,16 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="10">
         <v>4</v>
       </c>
       <c r="J6" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K6" s="10">
         <v>2</v>
@@ -840,65 +796,61 @@
       <c r="M6" s="11">
         <v>43487</v>
       </c>
-      <c r="N6" s="23"/>
-    </row>
-    <row r="7" spans="1:14" ht="15">
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" s="19"/>
       <c r="D8" s="16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="H8" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D10" s="13">
         <v>1</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="F10" s="13">
         <v>99999999999</v>
@@ -907,26 +859,24 @@
         <v>1</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J10" s="7">
         <v>1</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D11" s="13">
         <v>2</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F11" s="13">
         <v>88888888888</v>
@@ -935,49 +885,37 @@
         <v>2</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J11" s="7">
         <v>2</v>
       </c>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="J12" s="7">
         <v>3</v>
       </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="H8:J8"/>
+    <mergeCell ref="D1:G1"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
